--- a/medicine/Psychotrope/Brauerei_Bosch/Brauerei_Bosch.xlsx
+++ b/medicine/Psychotrope/Brauerei_Bosch/Brauerei_Bosch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brauerei BOSCH GmbH &amp; Co KG est une brasserie à Bad Laasphe.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1705, la société est fondée par le boulanger Johann Friedrich Schuppert (1661-1730). Elle est reprise par son fils Johann Friedrich Schuppert (1697-1762) et son petit-fils Christian Friedrich Schuppert (1741-1808). En raison des sols stériles, un travail est à peine suffisant pour survivre. Par conséquent, les Schuppert sont agriculteurs, boulangers, aubergistes et brasseurs.
 En 1825, Georg Eberhard Bosch vient du Siegerland à Laasphe pour étudier avec Christian Friedrich Schuppert et apprendre le métier de brasseur. Par le mariage de la fille de Friedrich Christian Schuppert, la brasserie prend après sa mort le nom de Bosch.
@@ -545,7 +559,9 @@
           <t>Stratégie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie Bosch se positionne délibérément comme une alternative artisanale aux brasseries industrielles voisines. Par exemple, la production de bière Bosch se passe de l'utilisation de l'extrait de houblon industriel et utilise à la place du houblon naturel sous forme de granulés. Les bières ne sont pas pasteurisées avant la mise en bouteille. Une caractéristique particulière est la longue durée de vie de la bière jusqu'à trois mois.
 La brasserie a sa propre flotte de camions pour la fourniture de restauration et d'événements. La brasserie vend ses bières en particulier dans les arrondissements de Siegen-Wittgenstein, Marburg-Biedenkopf, Gießen, Hochsauerland, Lahn-Dill-Kreis ainsi que dans la région Mayence-Wiesbaden.
@@ -578,7 +594,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie Bosch brasse les bières suivantes :
 Bosch
